--- a/Code/Results/Cases/Case_0_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_172/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.980104603912382</v>
+        <v>9.628476381622647</v>
       </c>
       <c r="D2">
-        <v>2.51024230788921</v>
+        <v>4.889477451973889</v>
       </c>
       <c r="E2">
-        <v>9.730014236902081</v>
+        <v>12.53729045262738</v>
       </c>
       <c r="F2">
-        <v>33.18803678465109</v>
+        <v>30.06386191256705</v>
       </c>
       <c r="G2">
-        <v>2.01736667833755</v>
+        <v>3.626191705832343</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.12234104837354</v>
+        <v>26.77851708482352</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.37572905117502</v>
+        <v>9.461361224737708</v>
       </c>
       <c r="O2">
-        <v>26.47583119607306</v>
+        <v>26.27224278197679</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.742517956071314</v>
+        <v>9.616662997744301</v>
       </c>
       <c r="D3">
-        <v>2.54454869923842</v>
+        <v>4.904063324356488</v>
       </c>
       <c r="E3">
-        <v>9.334377041386126</v>
+        <v>12.50587338210542</v>
       </c>
       <c r="F3">
-        <v>31.15237811588844</v>
+        <v>29.61645569846391</v>
       </c>
       <c r="G3">
-        <v>2.027139498940485</v>
+        <v>3.629809073164946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.6643322515609</v>
+        <v>26.52703300356137</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.205014744575992</v>
+        <v>9.462156847846751</v>
       </c>
       <c r="O3">
-        <v>24.9554395612968</v>
+        <v>25.99078460847631</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.598022771365936</v>
+        <v>9.611393688489276</v>
       </c>
       <c r="D4">
-        <v>2.566735158985817</v>
+        <v>4.913540692465935</v>
       </c>
       <c r="E4">
-        <v>9.091695752198509</v>
+        <v>12.48947518498029</v>
       </c>
       <c r="F4">
-        <v>29.8644432770611</v>
+        <v>29.34776987289026</v>
       </c>
       <c r="G4">
-        <v>2.03328945334112</v>
+        <v>3.632147283375773</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.74928046016321</v>
+        <v>26.37914352774891</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.102989096395903</v>
+        <v>9.464457197895868</v>
       </c>
       <c r="O4">
-        <v>23.99908465890473</v>
+        <v>25.82415151807154</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.539544515246821</v>
+        <v>9.609746457278014</v>
       </c>
       <c r="D5">
-        <v>2.576047099832292</v>
+        <v>4.917534230268341</v>
       </c>
       <c r="E5">
-        <v>8.992966693395912</v>
+        <v>12.48352350784806</v>
       </c>
       <c r="F5">
-        <v>29.33038164679801</v>
+        <v>29.23993525346502</v>
       </c>
       <c r="G5">
-        <v>2.035835386028982</v>
+        <v>3.633129687416996</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.37174319323845</v>
+        <v>26.32057785934655</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.06213514694443</v>
+        <v>9.465850124014379</v>
       </c>
       <c r="O5">
-        <v>23.603949919446</v>
+        <v>25.7578749704657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.529860452356388</v>
+        <v>9.609503163802815</v>
       </c>
       <c r="D6">
-        <v>2.577609403488986</v>
+        <v>4.918205300668106</v>
       </c>
       <c r="E6">
-        <v>8.97658616261587</v>
+        <v>12.48257945799152</v>
       </c>
       <c r="F6">
-        <v>29.24115696860095</v>
+        <v>29.22213357267391</v>
       </c>
       <c r="G6">
-        <v>2.036260600094074</v>
+        <v>3.633294603725373</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.30878454221916</v>
+        <v>26.31095746928115</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.055395611714488</v>
+        <v>9.466108923981693</v>
       </c>
       <c r="O6">
-        <v>23.53802269477499</v>
+        <v>25.74697017307598</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.597232395472731</v>
+        <v>9.611369447427201</v>
       </c>
       <c r="D7">
-        <v>2.566859660149641</v>
+        <v>4.913594018198493</v>
       </c>
       <c r="E7">
-        <v>9.090363437654981</v>
+        <v>12.4893919558401</v>
       </c>
       <c r="F7">
-        <v>29.85727750828838</v>
+        <v>29.34630868273633</v>
       </c>
       <c r="G7">
-        <v>2.03332362482444</v>
+        <v>3.632160412569632</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.74420715592403</v>
+        <v>26.37834672866234</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.102435173799992</v>
+        <v>9.46447413928597</v>
       </c>
       <c r="O7">
-        <v>23.99377714330922</v>
+        <v>25.82325100505348</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.89792955070099</v>
+        <v>9.623992090321806</v>
       </c>
       <c r="D8">
-        <v>2.521830637039897</v>
+        <v>4.894398571535361</v>
       </c>
       <c r="E8">
-        <v>9.593606256898076</v>
+        <v>12.52585992806422</v>
       </c>
       <c r="F8">
-        <v>32.49420439859409</v>
+        <v>29.9084324647919</v>
       </c>
       <c r="G8">
-        <v>2.020706720805252</v>
+        <v>3.627414729997184</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.62391026894177</v>
+        <v>26.69048884695129</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.316298235674359</v>
+        <v>9.461259512296792</v>
       </c>
       <c r="O8">
-        <v>25.95650508091511</v>
+        <v>26.17395749425673</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.496468853773389</v>
+        <v>9.664425100048851</v>
       </c>
       <c r="D9">
-        <v>2.443087669212517</v>
+        <v>4.860882506918765</v>
       </c>
       <c r="E9">
-        <v>10.5786940462343</v>
+        <v>12.62013471018179</v>
       </c>
       <c r="F9">
-        <v>37.37332067390093</v>
+        <v>31.05216523296169</v>
       </c>
       <c r="G9">
-        <v>1.997041118307225</v>
+        <v>3.61903281526939</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.14250411529599</v>
+        <v>27.3515373107982</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.75713624381452</v>
+        <v>9.469328790192879</v>
       </c>
       <c r="O9">
-        <v>29.61481128328423</v>
+        <v>26.90738542557767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.939499467524596</v>
+        <v>9.703584947228403</v>
       </c>
       <c r="D10">
-        <v>2.392244089459584</v>
+        <v>4.838756717498568</v>
       </c>
       <c r="E10">
-        <v>11.29791981403243</v>
+        <v>12.70298026706907</v>
       </c>
       <c r="F10">
-        <v>40.97324441208181</v>
+        <v>31.90909069558753</v>
       </c>
       <c r="G10">
-        <v>1.980140845967792</v>
+        <v>3.613431099136407</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.74043959037722</v>
+        <v>27.86307116331799</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.093523370031003</v>
+        <v>9.484005659677566</v>
       </c>
       <c r="O10">
-        <v>32.42109718689573</v>
+        <v>27.46939495718129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.14153784364485</v>
+        <v>9.723422804829166</v>
       </c>
       <c r="D11">
-        <v>2.370997704225251</v>
+        <v>4.829230182980425</v>
       </c>
       <c r="E11">
-        <v>11.6238645385772</v>
+        <v>12.74354063641782</v>
       </c>
       <c r="F11">
-        <v>42.55819352093263</v>
+        <v>32.30072432240082</v>
       </c>
       <c r="G11">
-        <v>1.972515154110625</v>
+        <v>3.611002066040538</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.97642877780466</v>
+        <v>28.10050732186045</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.249289488690451</v>
+        <v>9.492575029731206</v>
       </c>
       <c r="O11">
-        <v>33.69077775938244</v>
+        <v>27.7290626869189</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.218115115768954</v>
+        <v>9.73122278003323</v>
       </c>
       <c r="D12">
-        <v>2.363262674563742</v>
+        <v>4.825699937287994</v>
       </c>
       <c r="E12">
-        <v>11.74712316414971</v>
+        <v>12.75930534164623</v>
       </c>
       <c r="F12">
-        <v>43.15115804997681</v>
+        <v>32.4491386887228</v>
       </c>
       <c r="G12">
-        <v>1.969632370853218</v>
+        <v>3.610099282081606</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.43879841748699</v>
+        <v>28.19102285860892</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.30868164305179</v>
+        <v>9.496091200808451</v>
       </c>
       <c r="O12">
-        <v>34.16566946879963</v>
+        <v>27.82788060060402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.201619610772665</v>
+        <v>9.729530170363496</v>
       </c>
       <c r="D13">
-        <v>2.364914010080945</v>
+        <v>4.826456806450007</v>
       </c>
       <c r="E13">
-        <v>11.72058434704165</v>
+        <v>12.7558922328186</v>
       </c>
       <c r="F13">
-        <v>43.02376719724251</v>
+        <v>32.41717239182121</v>
       </c>
       <c r="G13">
-        <v>1.970253082070589</v>
+        <v>3.610292956648078</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.33946581649524</v>
+        <v>28.1715031122685</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.29587206091206</v>
+        <v>9.495321890515534</v>
       </c>
       <c r="O13">
-        <v>34.06365018217964</v>
+        <v>27.80657812986101</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.147836466242731</v>
+        <v>9.724058765028294</v>
       </c>
       <c r="D14">
-        <v>2.370354855253132</v>
+        <v>4.828938200548288</v>
       </c>
       <c r="E14">
-        <v>11.63400835896866</v>
+        <v>12.74482953108409</v>
       </c>
       <c r="F14">
-        <v>42.60711948025573</v>
+        <v>32.31293307529683</v>
       </c>
       <c r="G14">
-        <v>1.972277912681576</v>
+        <v>3.610927452589678</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.01457999953897</v>
+        <v>28.1079424381975</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.254167449633176</v>
+        <v>9.49285888001239</v>
       </c>
       <c r="O14">
-        <v>33.72996379102639</v>
+        <v>27.7371832362148</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.114901994807195</v>
+        <v>9.720744751070232</v>
       </c>
       <c r="D15">
-        <v>2.373729302854991</v>
+        <v>4.830468179931331</v>
       </c>
       <c r="E15">
-        <v>11.58095666826856</v>
+        <v>12.73810585488765</v>
       </c>
       <c r="F15">
-        <v>42.35098217552473</v>
+        <v>32.24909359555821</v>
       </c>
       <c r="G15">
-        <v>1.973518688825765</v>
+        <v>3.611318315440208</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.81484903992563</v>
+        <v>28.06908598802575</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.228675727502375</v>
+        <v>9.49138549025899</v>
       </c>
       <c r="O15">
-        <v>33.52481209951198</v>
+        <v>27.69473769911101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.926305344257564</v>
+        <v>9.702328954494428</v>
       </c>
       <c r="D16">
-        <v>2.393673676703415</v>
+        <v>4.839390119283301</v>
       </c>
       <c r="E16">
-        <v>11.27659380444178</v>
+        <v>12.70038671921716</v>
       </c>
       <c r="F16">
-        <v>40.8686326621654</v>
+        <v>31.88352013745194</v>
       </c>
       <c r="G16">
-        <v>1.980640121220965</v>
+        <v>3.613592232106707</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.65885368222984</v>
+        <v>27.8476428558882</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.083399692256183</v>
+        <v>9.483483634649936</v>
       </c>
       <c r="O16">
-        <v>32.33727528108416</v>
+        <v>27.45249809503832</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.810729661449642</v>
+        <v>9.691547637645554</v>
       </c>
       <c r="D17">
-        <v>2.406416707706065</v>
+        <v>4.845001240094932</v>
       </c>
       <c r="E17">
-        <v>11.08955833271498</v>
+        <v>12.67797786151858</v>
       </c>
       <c r="F17">
-        <v>39.94599390373043</v>
+        <v>31.65960957850508</v>
       </c>
       <c r="G17">
-        <v>1.985022117599284</v>
+        <v>3.615017665516661</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.93925266131491</v>
+        <v>27.71295294107355</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.994985414378629</v>
+        <v>9.479120216899565</v>
       </c>
       <c r="O17">
-        <v>31.59788156909035</v>
+        <v>27.3048549978935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.744300084828136</v>
+        <v>9.68553721851792</v>
       </c>
       <c r="D18">
-        <v>2.413920504613011</v>
+        <v>4.848279315373789</v>
       </c>
       <c r="E18">
-        <v>10.98186221696202</v>
+        <v>12.6653598592197</v>
       </c>
       <c r="F18">
-        <v>39.41033248010763</v>
+        <v>31.53100161992122</v>
       </c>
       <c r="G18">
-        <v>1.987548663357757</v>
+        <v>3.615848764499557</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.53816046692335</v>
+        <v>27.63593341792979</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.944388573894958</v>
+        <v>9.476788728982752</v>
       </c>
       <c r="O18">
-        <v>31.16850700833853</v>
+        <v>27.22031705978993</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.721816463889201</v>
+        <v>9.683535040638251</v>
       </c>
       <c r="D19">
-        <v>2.416490032517125</v>
+        <v>4.849397930656454</v>
       </c>
       <c r="E19">
-        <v>10.94537803050936</v>
+        <v>12.66113438942697</v>
       </c>
       <c r="F19">
-        <v>39.22810127290539</v>
+        <v>31.48749262216883</v>
       </c>
       <c r="G19">
-        <v>1.988405278145456</v>
+        <v>3.616132091853076</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.41272120724743</v>
+        <v>27.60993566519988</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.927301235594213</v>
+        <v>9.476029967427637</v>
       </c>
       <c r="O19">
-        <v>31.02241633686191</v>
+        <v>27.19176236151778</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.823028140783804</v>
+        <v>9.692675611766747</v>
       </c>
       <c r="D20">
-        <v>2.405041886107648</v>
+        <v>4.844398680275354</v>
       </c>
       <c r="E20">
-        <v>11.10948084216599</v>
+        <v>12.68033533196423</v>
       </c>
       <c r="F20">
-        <v>40.04472389977366</v>
+        <v>31.6834277618024</v>
       </c>
       <c r="G20">
-        <v>1.984555039241221</v>
+        <v>3.614864764470275</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.01625975483942</v>
+        <v>27.72724484181588</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.00437063976265</v>
+        <v>9.479566270463376</v>
       </c>
       <c r="O20">
-        <v>31.67701302408538</v>
+        <v>27.32053291759321</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.163631933777198</v>
+        <v>9.725658065717575</v>
       </c>
       <c r="D21">
-        <v>2.368747957655607</v>
+        <v>4.828207260086159</v>
       </c>
       <c r="E21">
-        <v>11.65944223319229</v>
+        <v>12.74806797866398</v>
       </c>
       <c r="F21">
-        <v>42.72969177649686</v>
+        <v>32.34354884325683</v>
       </c>
       <c r="G21">
-        <v>1.971683072776649</v>
+        <v>3.610740624173945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.11015815582986</v>
+        <v>28.12659598749735</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.26640590516008</v>
+        <v>9.493574976728548</v>
       </c>
       <c r="O21">
-        <v>33.82813312985013</v>
+        <v>27.75755367790955</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.3866521984644</v>
+        <v>9.748889841475499</v>
       </c>
       <c r="D22">
-        <v>2.346863050535399</v>
+        <v>4.818075393189774</v>
       </c>
       <c r="E22">
-        <v>12.0179082336334</v>
+        <v>12.79469392360504</v>
       </c>
       <c r="F22">
-        <v>44.44260567459264</v>
+        <v>32.77555802606552</v>
       </c>
       <c r="G22">
-        <v>1.96329679086787</v>
+        <v>3.608144523164053</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.4457584295113</v>
+        <v>28.39107715453985</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.440047135140575</v>
+        <v>9.504310230473529</v>
       </c>
       <c r="O22">
-        <v>35.19976468902635</v>
+        <v>28.04597191127868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.267580947911465</v>
+        <v>9.736338418892061</v>
       </c>
       <c r="D23">
-        <v>2.358359905978931</v>
+        <v>4.823441836120138</v>
       </c>
       <c r="E23">
-        <v>11.82666697240774</v>
+        <v>12.76959570744074</v>
       </c>
       <c r="F23">
-        <v>43.53208390780857</v>
+        <v>32.54498168427403</v>
       </c>
       <c r="G23">
-        <v>1.967771782505081</v>
+        <v>3.609521063088684</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.73581928278896</v>
+        <v>28.24962569373626</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.347146033655553</v>
+        <v>9.49843647682386</v>
       </c>
       <c r="O23">
-        <v>34.47071300472405</v>
+        <v>27.89181073488928</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>7.817467946741649</v>
+        <v>9.692165069143421</v>
       </c>
       <c r="D24">
-        <v>2.405662892478335</v>
+        <v>4.844670935041286</v>
       </c>
       <c r="E24">
-        <v>11.10047439584985</v>
+        <v>12.67926869310605</v>
       </c>
       <c r="F24">
-        <v>40.00010436617919</v>
+        <v>31.67265917207487</v>
       </c>
       <c r="G24">
-        <v>1.984766182398451</v>
+        <v>3.614933854897314</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.98145767884671</v>
+        <v>27.72078217329668</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.000126852221052</v>
+        <v>9.479364057935955</v>
       </c>
       <c r="O24">
-        <v>31.64125107002028</v>
+        <v>27.31344385160795</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>7.333855736352185</v>
+        <v>9.651817675125459</v>
       </c>
       <c r="D25">
-        <v>2.463261095033348</v>
+        <v>4.86950954277092</v>
       </c>
       <c r="E25">
-        <v>10.31282569125755</v>
+        <v>12.59222161091889</v>
       </c>
       <c r="F25">
-        <v>36.07372037043674</v>
+        <v>30.7392129463442</v>
       </c>
       <c r="G25">
-        <v>2.003344486004006</v>
+        <v>3.621202115862117</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.20962242703961</v>
+        <v>27.16786770945215</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.635661639071527</v>
+        <v>9.465607692995173</v>
       </c>
       <c r="O25">
-        <v>28.64649795472397</v>
+        <v>26.70455883351526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_172/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.628476381622647</v>
+        <v>6.980104603912383</v>
       </c>
       <c r="D2">
-        <v>4.889477451973889</v>
+        <v>2.510242307889161</v>
       </c>
       <c r="E2">
-        <v>12.53729045262738</v>
+        <v>9.730014236902072</v>
       </c>
       <c r="F2">
-        <v>30.06386191256705</v>
+        <v>33.18803678465115</v>
       </c>
       <c r="G2">
-        <v>3.626191705832343</v>
+        <v>2.017366678337817</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.77851708482352</v>
+        <v>26.12234104837358</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.461361224737708</v>
+        <v>6.375729051175023</v>
       </c>
       <c r="O2">
-        <v>26.27224278197679</v>
+        <v>26.47583119607311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.616662997744301</v>
+        <v>6.742517956071378</v>
       </c>
       <c r="D3">
-        <v>4.904063324356488</v>
+        <v>2.544548699238357</v>
       </c>
       <c r="E3">
-        <v>12.50587338210542</v>
+        <v>9.334377041386192</v>
       </c>
       <c r="F3">
-        <v>29.61645569846391</v>
+        <v>31.15237811588847</v>
       </c>
       <c r="G3">
-        <v>3.629809073164946</v>
+        <v>2.027139498940351</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.52703300356137</v>
+        <v>24.66433225156092</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.462156847846751</v>
+        <v>6.205014744576069</v>
       </c>
       <c r="O3">
-        <v>25.99078460847631</v>
+        <v>24.9554395612968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.611393688489276</v>
+        <v>6.598022771365859</v>
       </c>
       <c r="D4">
-        <v>4.913540692465935</v>
+        <v>2.566735158985999</v>
       </c>
       <c r="E4">
-        <v>12.48947518498029</v>
+        <v>9.091695752198449</v>
       </c>
       <c r="F4">
-        <v>29.34776987289026</v>
+        <v>29.86444327706109</v>
       </c>
       <c r="G4">
-        <v>3.632147283375773</v>
+        <v>2.033289453340986</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.37914352774891</v>
+        <v>23.74928046016319</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.464457197895868</v>
+        <v>6.102989096395847</v>
       </c>
       <c r="O4">
-        <v>25.82415151807154</v>
+        <v>23.99908465890471</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.609746457278014</v>
+        <v>6.539544515246821</v>
       </c>
       <c r="D5">
-        <v>4.917534230268341</v>
+        <v>2.576047099832308</v>
       </c>
       <c r="E5">
-        <v>12.48352350784806</v>
+        <v>8.992966693395918</v>
       </c>
       <c r="F5">
-        <v>29.23993525346502</v>
+        <v>29.33038164679806</v>
       </c>
       <c r="G5">
-        <v>3.633129687416996</v>
+        <v>2.035835386029115</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.32057785934655</v>
+        <v>23.37174319323852</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.465850124014379</v>
+        <v>6.062135146944437</v>
       </c>
       <c r="O5">
-        <v>25.7578749704657</v>
+        <v>23.60394991944605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.609503163802815</v>
+        <v>6.529860452356381</v>
       </c>
       <c r="D6">
-        <v>4.918205300668106</v>
+        <v>2.577609403489095</v>
       </c>
       <c r="E6">
-        <v>12.48257945799152</v>
+        <v>8.976586162615856</v>
       </c>
       <c r="F6">
-        <v>29.22213357267391</v>
+        <v>29.24115696860089</v>
       </c>
       <c r="G6">
-        <v>3.633294603725373</v>
+        <v>2.036260600094072</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.31095746928115</v>
+        <v>23.30878454221913</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.466108923981693</v>
+        <v>6.055395611714502</v>
       </c>
       <c r="O6">
-        <v>25.74697017307598</v>
+        <v>23.53802269477497</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9.611369447427201</v>
+        <v>6.597232395472738</v>
       </c>
       <c r="D7">
-        <v>4.913594018198493</v>
+        <v>2.566859660149749</v>
       </c>
       <c r="E7">
-        <v>12.4893919558401</v>
+        <v>9.090363437654963</v>
       </c>
       <c r="F7">
-        <v>29.34630868273633</v>
+        <v>29.85727750828835</v>
       </c>
       <c r="G7">
-        <v>3.632160412569632</v>
+        <v>2.033323624824309</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.37834672866234</v>
+        <v>23.744207155924</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.46447413928597</v>
+        <v>6.102435173799988</v>
       </c>
       <c r="O7">
-        <v>25.82325100505348</v>
+        <v>23.9937771433092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.623992090321806</v>
+        <v>6.897929550700939</v>
       </c>
       <c r="D8">
-        <v>4.894398571535361</v>
+        <v>2.521830637039777</v>
       </c>
       <c r="E8">
-        <v>12.52585992806422</v>
+        <v>9.593606256898045</v>
       </c>
       <c r="F8">
-        <v>29.9084324647919</v>
+        <v>32.49420439859414</v>
       </c>
       <c r="G8">
-        <v>3.627414729997184</v>
+        <v>2.020706720805516</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.69048884695129</v>
+        <v>25.62391026894182</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.461259512296792</v>
+        <v>6.316298235674372</v>
       </c>
       <c r="O8">
-        <v>26.17395749425673</v>
+        <v>25.95650508091515</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.664425100048851</v>
+        <v>7.496468853773408</v>
       </c>
       <c r="D9">
-        <v>4.860882506918765</v>
+        <v>2.443087669212551</v>
       </c>
       <c r="E9">
-        <v>12.62013471018179</v>
+        <v>10.57869404623429</v>
       </c>
       <c r="F9">
-        <v>31.05216523296169</v>
+        <v>37.37332067390094</v>
       </c>
       <c r="G9">
-        <v>3.61903281526939</v>
+        <v>1.997041118307093</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.3515373107982</v>
+        <v>29.14250411529597</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.469328790192879</v>
+        <v>6.757136243814515</v>
       </c>
       <c r="O9">
-        <v>26.90738542557767</v>
+        <v>29.61481128328422</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.703584947228403</v>
+        <v>7.939499467524532</v>
       </c>
       <c r="D10">
-        <v>4.838756717498568</v>
+        <v>2.392244089459545</v>
       </c>
       <c r="E10">
-        <v>12.70298026706907</v>
+        <v>11.29791981403244</v>
       </c>
       <c r="F10">
-        <v>31.90909069558753</v>
+        <v>40.97324441208195</v>
       </c>
       <c r="G10">
-        <v>3.613431099136407</v>
+        <v>1.980140845967793</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.86307116331799</v>
+        <v>31.74043959037734</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.484005659677566</v>
+        <v>7.093523370031014</v>
       </c>
       <c r="O10">
-        <v>27.46939495718129</v>
+        <v>32.42109718689583</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.723422804829166</v>
+        <v>8.141537843644816</v>
       </c>
       <c r="D11">
-        <v>4.829230182980425</v>
+        <v>2.370997704225148</v>
       </c>
       <c r="E11">
-        <v>12.74354063641782</v>
+        <v>11.62386453857717</v>
       </c>
       <c r="F11">
-        <v>32.30072432240082</v>
+        <v>42.55819352093256</v>
       </c>
       <c r="G11">
-        <v>3.611002066040538</v>
+        <v>1.972515154110768</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.10050732186045</v>
+        <v>32.97642877780461</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.492575029731206</v>
+        <v>7.24928948869044</v>
       </c>
       <c r="O11">
-        <v>27.7290626869189</v>
+        <v>33.69077775938239</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.73122278003323</v>
+        <v>8.218115115768935</v>
       </c>
       <c r="D12">
-        <v>4.825699937287994</v>
+        <v>2.36326267456364</v>
       </c>
       <c r="E12">
-        <v>12.75930534164623</v>
+        <v>11.74712316414974</v>
       </c>
       <c r="F12">
-        <v>32.4491386887228</v>
+        <v>43.15115804997676</v>
       </c>
       <c r="G12">
-        <v>3.610099282081606</v>
+        <v>1.969632370853351</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.19102285860892</v>
+        <v>33.43879841748694</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.496091200808451</v>
+        <v>7.308681643051799</v>
       </c>
       <c r="O12">
-        <v>27.82788060060402</v>
+        <v>34.1656694687996</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.729530170363496</v>
+        <v>8.201619610772683</v>
       </c>
       <c r="D13">
-        <v>4.826456806450007</v>
+        <v>2.364914010080915</v>
       </c>
       <c r="E13">
-        <v>12.7558922328186</v>
+        <v>11.72058434704166</v>
       </c>
       <c r="F13">
-        <v>32.41717239182121</v>
+        <v>43.0237671972427</v>
       </c>
       <c r="G13">
-        <v>3.610292956648078</v>
+        <v>1.970253082070724</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.1715031122685</v>
+        <v>33.33946581649538</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.495321890515534</v>
+        <v>7.295872060912052</v>
       </c>
       <c r="O13">
-        <v>27.80657812986101</v>
+        <v>34.06365018217979</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.724058765028294</v>
+        <v>8.14783646624271</v>
       </c>
       <c r="D14">
-        <v>4.828938200548288</v>
+        <v>2.37035485525318</v>
       </c>
       <c r="E14">
-        <v>12.74482953108409</v>
+        <v>11.63400835896865</v>
       </c>
       <c r="F14">
-        <v>32.31293307529683</v>
+        <v>42.60711948025578</v>
       </c>
       <c r="G14">
-        <v>3.610927452589678</v>
+        <v>1.972277912681575</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.1079424381975</v>
+        <v>33.01457999953903</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.49285888001239</v>
+        <v>7.254167449633188</v>
       </c>
       <c r="O14">
-        <v>27.7371832362148</v>
+        <v>33.72996379102642</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.720744751070232</v>
+        <v>8.114901994807191</v>
       </c>
       <c r="D15">
-        <v>4.830468179931331</v>
+        <v>2.373729302855041</v>
       </c>
       <c r="E15">
-        <v>12.73810585488765</v>
+        <v>11.58095666826853</v>
       </c>
       <c r="F15">
-        <v>32.24909359555821</v>
+        <v>42.35098217552473</v>
       </c>
       <c r="G15">
-        <v>3.611318315440208</v>
+        <v>1.97351868882576</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.06908598802575</v>
+        <v>32.81484903992563</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.49138549025899</v>
+        <v>7.228675727502362</v>
       </c>
       <c r="O15">
-        <v>27.69473769911101</v>
+        <v>33.52481209951194</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.702328954494428</v>
+        <v>7.926305344257605</v>
       </c>
       <c r="D16">
-        <v>4.839390119283301</v>
+        <v>2.393673676703437</v>
       </c>
       <c r="E16">
-        <v>12.70038671921716</v>
+        <v>11.2765938044418</v>
       </c>
       <c r="F16">
-        <v>31.88352013745194</v>
+        <v>40.86863266216539</v>
       </c>
       <c r="G16">
-        <v>3.613592232106707</v>
+        <v>1.980640121220969</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.8476428558882</v>
+        <v>31.65885368222981</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.483483634649936</v>
+        <v>7.083399692256191</v>
       </c>
       <c r="O16">
-        <v>27.45249809503832</v>
+        <v>32.33727528108413</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.691547637645554</v>
+        <v>7.810729661449627</v>
       </c>
       <c r="D17">
-        <v>4.845001240094932</v>
+        <v>2.4064167077061</v>
       </c>
       <c r="E17">
-        <v>12.67797786151858</v>
+        <v>11.08955833271501</v>
       </c>
       <c r="F17">
-        <v>31.65960957850508</v>
+        <v>39.94599390373049</v>
       </c>
       <c r="G17">
-        <v>3.615017665516661</v>
+        <v>1.985022117599545</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.71295294107355</v>
+        <v>30.93925266131494</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.479120216899565</v>
+        <v>6.994985414378661</v>
       </c>
       <c r="O17">
-        <v>27.3048549978935</v>
+        <v>31.59788156909038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.68553721851792</v>
+        <v>7.744300084828105</v>
       </c>
       <c r="D18">
-        <v>4.848279315373789</v>
+        <v>2.413920504613167</v>
       </c>
       <c r="E18">
-        <v>12.6653598592197</v>
+        <v>10.98186221696199</v>
       </c>
       <c r="F18">
-        <v>31.53100161992122</v>
+        <v>39.4103324801077</v>
       </c>
       <c r="G18">
-        <v>3.615848764499557</v>
+        <v>1.987548663357623</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.63593341792979</v>
+        <v>30.53816046692336</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.476788728982752</v>
+        <v>6.944388573894939</v>
       </c>
       <c r="O18">
-        <v>27.22031705978993</v>
+        <v>31.16850700833857</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.683535040638251</v>
+        <v>7.721816463889125</v>
       </c>
       <c r="D19">
-        <v>4.849397930656454</v>
+        <v>2.416490032517113</v>
       </c>
       <c r="E19">
-        <v>12.66113438942697</v>
+        <v>10.94537803050935</v>
       </c>
       <c r="F19">
-        <v>31.48749262216883</v>
+        <v>39.22810127290538</v>
       </c>
       <c r="G19">
-        <v>3.616132091853076</v>
+        <v>1.988405278145454</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.60993566519988</v>
+        <v>30.41272120724738</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.476029967427637</v>
+        <v>6.927301235594194</v>
       </c>
       <c r="O19">
-        <v>27.19176236151778</v>
+        <v>31.0224163368619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.692675611766747</v>
+        <v>7.823028140783864</v>
       </c>
       <c r="D20">
-        <v>4.844398680275354</v>
+        <v>2.405041886107722</v>
       </c>
       <c r="E20">
-        <v>12.68033533196423</v>
+        <v>11.10948084216597</v>
       </c>
       <c r="F20">
-        <v>31.6834277618024</v>
+        <v>40.04472389977369</v>
       </c>
       <c r="G20">
-        <v>3.614864764470275</v>
+        <v>1.984555039241084</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.72724484181588</v>
+        <v>31.01625975483945</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.479566270463376</v>
+        <v>7.00437063976263</v>
       </c>
       <c r="O20">
-        <v>27.32053291759321</v>
+        <v>31.67701302408541</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.725658065717575</v>
+        <v>8.163631933777141</v>
       </c>
       <c r="D21">
-        <v>4.828207260086159</v>
+        <v>2.368747957655746</v>
       </c>
       <c r="E21">
-        <v>12.74806797866398</v>
+        <v>11.65944223319227</v>
       </c>
       <c r="F21">
-        <v>32.34354884325683</v>
+        <v>42.72969177649698</v>
       </c>
       <c r="G21">
-        <v>3.610740624173945</v>
+        <v>1.971683072776651</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.12659598749735</v>
+        <v>33.11015815582991</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.493574976728548</v>
+        <v>7.26640590516007</v>
       </c>
       <c r="O21">
-        <v>27.75755367790955</v>
+        <v>33.82813312985021</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.748889841475499</v>
+        <v>8.386652198464397</v>
       </c>
       <c r="D22">
-        <v>4.818075393189774</v>
+        <v>2.346863050535411</v>
       </c>
       <c r="E22">
-        <v>12.79469392360504</v>
+        <v>12.01790823363337</v>
       </c>
       <c r="F22">
-        <v>32.77555802606552</v>
+        <v>44.4426056745926</v>
       </c>
       <c r="G22">
-        <v>3.608144523164053</v>
+        <v>1.963296790867732</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.39107715453985</v>
+        <v>34.44575842951127</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.504310230473529</v>
+        <v>7.44004713514056</v>
       </c>
       <c r="O22">
-        <v>28.04597191127868</v>
+        <v>35.19976468902632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.736338418892061</v>
+        <v>8.267580947911513</v>
       </c>
       <c r="D23">
-        <v>4.823441836120138</v>
+        <v>2.358359905978901</v>
       </c>
       <c r="E23">
-        <v>12.76959570744074</v>
+        <v>11.82666697240776</v>
       </c>
       <c r="F23">
-        <v>32.54498168427403</v>
+        <v>43.5320839078087</v>
       </c>
       <c r="G23">
-        <v>3.609521063088684</v>
+        <v>1.967771782505079</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.24962569373626</v>
+        <v>33.73581928278907</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.49843647682386</v>
+        <v>7.347146033655553</v>
       </c>
       <c r="O23">
-        <v>27.89181073488928</v>
+        <v>34.47071300472417</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.692165069143421</v>
+        <v>7.817467946741561</v>
       </c>
       <c r="D24">
-        <v>4.844670935041286</v>
+        <v>2.405662892478428</v>
       </c>
       <c r="E24">
-        <v>12.67926869310605</v>
+        <v>11.10047439584986</v>
       </c>
       <c r="F24">
-        <v>31.67265917207487</v>
+        <v>40.00010436617927</v>
       </c>
       <c r="G24">
-        <v>3.614933854897314</v>
+        <v>1.984766182398586</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.72078217329668</v>
+        <v>30.98145767884676</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.479364057935955</v>
+        <v>7.000126852221091</v>
       </c>
       <c r="O24">
-        <v>27.31344385160795</v>
+        <v>31.64125107002034</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.651817675125459</v>
+        <v>7.333855736352309</v>
       </c>
       <c r="D25">
-        <v>4.86950954277092</v>
+        <v>2.463261095033299</v>
       </c>
       <c r="E25">
-        <v>12.59222161091889</v>
+        <v>10.31282569125757</v>
       </c>
       <c r="F25">
-        <v>30.7392129463442</v>
+        <v>36.07372037043678</v>
       </c>
       <c r="G25">
-        <v>3.621202115862117</v>
+        <v>2.003344486004006</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.16786770945215</v>
+        <v>28.20962242703963</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.465607692995173</v>
+        <v>6.635661639071524</v>
       </c>
       <c r="O25">
-        <v>26.70455883351526</v>
+        <v>28.64649795472398</v>
       </c>
     </row>
   </sheetData>
